--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0853E4C5-25E3-49A0-A98D-D33FFA3DF288}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>문제 번호</t>
   </si>
@@ -196,13 +197,25 @@
   </si>
   <si>
     <t>배열로 간단하게 푸는 방법이 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택, 이진 탐색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count 오버 플로우 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렬로 나열된 사람들 중에서 서로 볼 수 있는 쌍을 구하는 문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,7 +699,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E27" si="0">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B3,B3)</f>
+        <f t="shared" ref="E3:E28" si="0">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B3,B3)</f>
         <v>1120</v>
       </c>
       <c r="F3" s="7"/>
@@ -997,7 +1010,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1037,7 +1050,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1115,7 +1128,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1155,6 +1168,27 @@
       </c>
       <c r="F27" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3015</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>3015</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\closet\Project\baekjoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0853E4C5-25E3-49A0-A98D-D33FFA3DF288}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>문제 번호</t>
   </si>
@@ -209,13 +208,21 @@
   </si>
   <si>
     <t>일렬로 나열된 사람들 중에서 서로 볼 수 있는 쌍을 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ n 숫자들의 자릿수를 모두 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,6 +1198,25 @@
         <v>56</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1019</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" ref="E29" si="1">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B29,B29)</f>
+        <v>1019</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\closet\Project\baekjoon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{956F8940-55A5-41E6-87BB-ECCF7486768A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>문제 번호</t>
   </si>
@@ -216,13 +217,25 @@
   </si>
   <si>
     <t>재귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에 들어있는 숫자들을 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합이 오버 플로우 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,11 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1217,6 +1230,27 @@
       </c>
       <c r="F29" s="3"/>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8595</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ref="E30" si="2">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B30,B30)</f>
+        <v>8595</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{956F8940-55A5-41E6-87BB-ECCF7486768A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D13079EF-94D2-42A0-BBE5-A076854716A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>문제 번호</t>
   </si>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>합이 오버 플로우 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물에 잠기지 않는 안전한 영역의 최대 개수를 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1251,6 +1259,25 @@
         <v>62</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2468</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" ref="E31" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <v>2468</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\closet\Project\baekjoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D13079EF-94D2-42A0-BBE5-A076854716A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>문제 번호</t>
   </si>
@@ -237,13 +236,21 @@
   </si>
   <si>
     <t>BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 노드의 이전 노드들의 합을 구해서 x 노드의 값을 구하는 문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,11 +685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1273,10 +1280,28 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E32" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1005</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="3"/>
+        <v>1005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>문제 번호</t>
   </si>
@@ -244,6 +244,14 @@
   </si>
   <si>
     <t>각 노드의 이전 노드들의 합을 구해서 x 노드의 값을 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순한 DP 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +410,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F32"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1291,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E32" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E33" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1301,6 +1312,24 @@
       <c r="E32" s="9">
         <f t="shared" si="3"/>
         <v>1005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <v>11726</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="3"/>
+        <v>11726</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>문제 번호</t>
   </si>
@@ -247,11 +247,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>단순한 DP 문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떠한 성질을 만족하는 이진수의 개수 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 x n 타일 안에 블록을 채울 수 있는 경우의 수를 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long 보다도 크기 때문에 BigInteger 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오르는 길 중 가장 많이 쉼터를 방문할 수 있는 경우의 수를 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상정렬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,7 +730,7 @@
     <col min="3" max="3" width="67.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1056,7 +1076,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1291,7 +1311,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E33" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E35" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1314,7 +1334,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1322,14 +1342,53 @@
         <v>11726</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="3"/>
         <v>11726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2193</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="3"/>
+        <v>2193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8">
+        <v>14699</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="3"/>
+        <v>14699</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>문제 번호</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>위상정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 숫자를 제곱 수들의 합으로 표현할 때 최소 개수를 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2xn 타일 안에 블록을 채울 수 있는 경우의 수를 구하는 문제2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F35"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E35" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E37" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1389,6 +1401,42 @@
       <c r="E35" s="10">
         <f t="shared" si="3"/>
         <v>14699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1699</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="3"/>
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>11727</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="3"/>
+        <v>11727</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\closet\Project\baekjoon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE5C5BBC-B314-494C-8C41-0FF1311D6E03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>문제 번호</t>
   </si>
@@ -244,13 +245,21 @@
   </si>
   <si>
     <t>각 노드의 이전 노드들의 합을 구해서 x 노드의 값을 구하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 단계와 전전 단계로 구분되어서 푸는 문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +411,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1292,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E32" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E33" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1301,6 +1313,24 @@
       <c r="E32" s="9">
         <f t="shared" si="3"/>
         <v>1005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2579</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="3"/>
+        <v>2579</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\closet\SpringProjects\acmicpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\closet\Project\baekjoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE5C5BBC-B314-494C-8C41-0FF1311D6E03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>문제 번호</t>
   </si>
@@ -253,13 +252,21 @@
   </si>
   <si>
     <t>전 단계와 전전 단계로 구분되어서 푸는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 슬라이딩 윈도우 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이딩 윈도우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,11 +704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1299,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E33" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E34" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1331,6 +1338,24 @@
       <c r="E33" s="10">
         <f t="shared" si="3"/>
         <v>2579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8">
+        <v>15831</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="3"/>
+        <v>15831</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>문제 번호</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>슬라이딩 윈도우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진 탐색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진 탐색을 인덱스로 값을 찾는 게 아닌, 값의 범위를 이진 탐색하는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버 플로우 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1311,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E34" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E35" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1322,7 +1334,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1356,6 +1368,27 @@
       <c r="E34" s="10">
         <f t="shared" si="3"/>
         <v>15831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3079</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="3"/>
+        <v>3079</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>문제 번호</t>
   </si>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>오버 플로우 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 후 모든 값에 대한 이진 탐색을 진행하여 최소 값을 찾는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진 탐색</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F35"/>
+  <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1319,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E35" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E36" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1389,6 +1397,24 @@
       </c>
       <c r="F35" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2470</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="3"/>
+        <v>2470</v>
       </c>
     </row>
   </sheetData>

--- a/문제 목록.xlsx
+++ b/문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>문제 번호</t>
   </si>
@@ -275,11 +275,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정렬 후 모든 값에 대한 이진 탐색을 진행하여 최소 값을 찾는 문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이진 탐색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 값의 합 중 어떤 것이 특정 값에 제일 가까운지 찾는 문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼만큼 점프할 수 있는지 적혀 있는 칸들이 있을 때 가장 최소 경우는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1칸 일 경우는 무조건 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1331,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E36" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
+        <f t="shared" ref="E31:E37" si="3">HYPERLINK("https://www.acmicpc.net/problem/"&amp;B31,B31)</f>
         <v>2468</v>
       </c>
       <c r="F31" s="3"/>
@@ -1407,14 +1419,35 @@
         <v>2470</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" si="3"/>
         <v>2470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>11060</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="3"/>
+        <v>11060</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
